--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints4.500000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints4.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.845390008108967e-07</v>
+        <v>1.853406282531245e-07</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>1.841967365836952e-07</v>
+        <v>1.850483978152261e-07</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>1.836101393930349e-07</v>
+        <v>1.844658524524844e-07</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>1.827990645425669e-07</v>
+        <v>1.836181072699032e-07</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>1.817833673359396e-07</v>
+        <v>1.82530277372484e-07</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>1.805829030768021e-07</v>
+        <v>1.812274778652289e-07</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>1.792175270688019e-07</v>
+        <v>1.797348238531379e-07</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>1.777070946155917e-07</v>
+        <v>1.780774304412172e-07</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>1.76071461020819e-07</v>
+        <v>1.762804127344668e-07</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>1.743304815881307e-07</v>
+        <v>1.743688858378864e-07</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>1.725040116211806e-07</v>
+        <v>1.723679648564832e-07</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>1.706119064236156e-07</v>
+        <v>1.703027648952568e-07</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>1.686740212990824e-07</v>
+        <v>1.681984010592064e-07</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>1.667102115512353e-07</v>
+        <v>1.660799884533399e-07</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>1.64740332483721e-07</v>
+        <v>1.639726421826564e-07</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>1.627842394001886e-07</v>
+        <v>1.619014773521582e-07</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>1.608617876042849e-07</v>
+        <v>1.598916090668448e-07</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>1.589928323996642e-07</v>
+        <v>1.579681524317235e-07</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>1.571967806083755e-07</v>
+        <v>1.561555040544081e-07</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>1.554840202044308e-07</v>
+        <v>1.54463611747349e-07</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.538565865765957e-07</v>
+        <v>1.528890419251898e-07</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.523162001306691e-07</v>
+        <v>1.514278563788895e-07</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.508645812724519e-07</v>
+        <v>1.500761168994091e-07</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.495034504077436e-07</v>
+        <v>1.488298852777082e-07</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.482345279423488e-07</v>
+        <v>1.476852233047511e-07</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.470595342820667e-07</v>
+        <v>1.466381927714971e-07</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.45980189832697e-07</v>
+        <v>1.456848554689062e-07</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.449982150000438e-07</v>
+        <v>1.44821273187942e-07</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.441153301899066e-07</v>
+        <v>1.440435077195642e-07</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.433332558080864e-07</v>
+        <v>1.433476208547339e-07</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.426537122603836e-07</v>
+        <v>1.427296743844114e-07</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.420784199526009e-07</v>
+        <v>1.421857300995594e-07</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.416090992905385e-07</v>
+        <v>1.417118497911383e-07</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.412474706799972e-07</v>
+        <v>1.413040952501085e-07</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.409926295388198e-07</v>
+        <v>1.409572259122502e-07</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.408261029244115e-07</v>
+        <v>1.406572848894548e-07</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.407222074613848e-07</v>
+        <v>1.403867379269138e-07</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.406552377902346e-07</v>
+        <v>1.401280398626729e-07</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.405994885514554e-07</v>
+        <v>1.398636455347767e-07</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.405292543855422e-07</v>
+        <v>1.395760097812702e-07</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.404188299329894e-07</v>
+        <v>1.392475874401978e-07</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.40242509834292e-07</v>
+        <v>1.388608333496055e-07</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.399745887299449e-07</v>
+        <v>1.383982023475377e-07</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.395893612604421e-07</v>
+        <v>1.378421492720386e-07</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.390611220662794e-07</v>
+        <v>1.371751289611547e-07</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.383641657879511e-07</v>
+        <v>1.363795962529303e-07</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.374727870659521e-07</v>
+        <v>1.354380059854103e-07</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.363612805407754e-07</v>
+        <v>1.343328129966381e-07</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.350039408529187e-07</v>
+        <v>1.330464721246616e-07</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.333773266514165e-07</v>
+        <v>1.315628256985446e-07</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.314871026386787e-07</v>
+        <v>1.298835536071292e-07</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.293591257034661e-07</v>
+        <v>1.280227104616742e-07</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.270196589115747e-07</v>
+        <v>1.259945997978452e-07</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.24494965328799e-07</v>
+        <v>1.238135251513074e-07</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.218113080209439e-07</v>
+        <v>1.214937900577345e-07</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.189949500538044e-07</v>
+        <v>1.190496980527915e-07</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.160721544931787e-07</v>
+        <v>1.164955526721465e-07</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.130691844048609e-07</v>
+        <v>1.138456574514637e-07</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.100123028546571e-07</v>
+        <v>1.111143159264183e-07</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.069277729083617e-07</v>
+        <v>1.083158316326746e-07</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.038418576317686e-07</v>
+        <v>1.054645081058969e-07</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>1.00780342834049e-07</v>
+        <v>1.025744990798674e-07</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>9.775727690464092e-08</v>
+        <v>9.965627413277897e-08</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>9.477453208068306e-08</v>
+        <v>9.671648097733333e-08</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>9.183341555911362e-08</v>
+        <v>9.376158997072416e-08</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>8.893523453688221e-08</v>
+        <v>9.079807147015665e-08</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>8.608129621092704e-08</v>
+        <v>8.783239583282448e-08</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>8.327290777818639e-08</v>
+        <v>8.487103341592127e-08</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>8.051137643560962e-08</v>
+        <v>8.192045457665228e-08</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>7.779800938013508e-08</v>
+        <v>7.898712967221115e-08</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>7.513411380870124e-08</v>
+        <v>7.607752905979161e-08</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>7.252099691825712e-08</v>
+        <v>7.31981230965988e-08</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>6.995996590574118e-08</v>
+        <v>7.035538213982638e-08</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>6.74523279680954e-08</v>
+        <v>6.755577654667187e-08</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>6.499939030225858e-08</v>
+        <v>6.480577667432915e-08</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>6.260246010517923e-08</v>
+        <v>6.211185288000304e-08</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>6.026284457379598e-08</v>
+        <v>5.948047552088735e-08</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>5.798185090504798e-08</v>
+        <v>5.69181149541763e-08</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>5.576078629588315e-08</v>
+        <v>5.443124153707411e-08</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>5.360095794324045e-08</v>
+        <v>5.202632562677489e-08</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>5.15036730440619e-08</v>
+        <v>4.970983758047614e-08</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>4.947023879528687e-08</v>
+        <v>4.748824775537253e-08</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>4.750196239386269e-08</v>
+        <v>4.536802650866739e-08</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>4.560015103672862e-08</v>
+        <v>4.335564419755526e-08</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>4.376611192082433e-08</v>
+        <v>4.145757117923125e-08</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>4.200115224309662e-08</v>
+        <v>3.968027781089782e-08</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>4.030657920048502e-08</v>
+        <v>3.803023444974994e-08</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>3.868545266284562e-08</v>
+        <v>3.651344117565581e-08</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>3.714994314403262e-08</v>
+        <v>3.513345349979254e-08</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>3.57151721814187e-08</v>
+        <v>3.389303511448978e-08</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>3.439626282639521e-08</v>
+        <v>3.279494930582842e-08</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>3.320833813035413e-08</v>
+        <v>3.184195935989012e-08</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>3.216652114469199e-08</v>
+        <v>3.103682856276015e-08</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>3.128593492080058e-08</v>
+        <v>3.038232020051997e-08</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>3.05817025100725e-08</v>
+        <v>2.98811975592518e-08</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>3.006894696390306e-08</v>
+        <v>2.953622392503977e-08</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>2.976279133368463e-08</v>
+        <v>2.93501625839659e-08</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>2.967835867081063e-08</v>
+        <v>2.932577682211298e-08</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>2.983077202667483e-08</v>
+        <v>2.94658299255641e-08</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>3.023515445267029e-08</v>
+        <v>2.977308518040169e-08</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>1.335311704494737e-07</v>
+        <v>1.322549413170796e-07</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>1.791068963518984e-07</v>
+        <v>1.78752839584901e-07</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>1.721466608472882e-07</v>
+        <v>1.701972329119832e-07</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>1.705210796704151e-07</v>
+        <v>1.697642086180859e-07</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>1.704154142549843e-07</v>
+        <v>1.713757533328307e-07</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>1.695008775732343e-07</v>
+        <v>1.706153350541207e-07</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>1.835752470030806e-07</v>
+        <v>1.833342086154181e-07</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>2.405455061069454e-07</v>
+        <v>2.389236501172079e-07</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>3.296400246073866e-07</v>
+        <v>3.283226257892082e-07</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>3.659926112202562e-07</v>
+        <v>3.673045202078639e-07</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>3.826523132822296e-07</v>
+        <v>3.855027643960765e-07</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>3.978584715467907e-07</v>
+        <v>3.989819863198731e-07</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>3.89863128430791e-07</v>
+        <v>3.865808866737764e-07</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>3.654694707007454e-07</v>
+        <v>3.616951198276134e-07</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>3.468177898708378e-07</v>
+        <v>3.530614234682224e-07</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>3.386637008678626e-07</v>
+        <v>3.517216327372175e-07</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>3.393452158972171e-07</v>
+        <v>3.455884198377109e-07</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>3.467955951061211e-07</v>
+        <v>3.504118423152932e-07</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>3.399991660595307e-07</v>
+        <v>3.410124414227175e-07</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>3.254185167408736e-07</v>
+        <v>3.230268054867206e-07</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>3.1542312915656e-07</v>
+        <v>3.149882442655656e-07</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>3.033281965934882e-07</v>
+        <v>3.037312152853831e-07</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>2.911936461467284e-07</v>
+        <v>2.918747370082574e-07</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>2.815329367865925e-07</v>
+        <v>2.83230997192846e-07</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>2.735401055306487e-07</v>
+        <v>2.763374677885367e-07</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>2.660495876317467e-07</v>
+        <v>2.69160196822006e-07</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>2.579171888913686e-07</v>
+        <v>2.598162870414088e-07</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>2.482167640525292e-07</v>
+        <v>2.479640895130876e-07</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>2.361496439661609e-07</v>
+        <v>2.341630022680538e-07</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>2.209480854000885e-07</v>
+        <v>2.189822934401946e-07</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>2.02984149795256e-07</v>
+        <v>2.029344148788179e-07</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>1.84110477376582e-07</v>
+        <v>1.864580154496748e-07</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>1.662786511213172e-07</v>
+        <v>1.69986811980879e-07</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>1.512273634184699e-07</v>
+        <v>1.540675660798962e-07</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>1.392913183855706e-07</v>
+        <v>1.399925563153856e-07</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>1.302355254506137e-07</v>
+        <v>1.293494799716585e-07</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>1.236568129400967e-07</v>
+        <v>1.227359565817322e-07</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>1.188082514107979e-07</v>
+        <v>1.187045720138399e-07</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>1.149183678947845e-07</v>
+        <v>1.155986095555323e-07</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>1.115704081910278e-07</v>
+        <v>1.126197222078144e-07</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>1.086729384613953e-07</v>
+        <v>1.097567926667037e-07</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>1.061465651734173e-07</v>
+        <v>1.070278394808591e-07</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>1.039118947946276e-07</v>
+        <v>1.044508811989427e-07</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>1.018895337925568e-07</v>
+        <v>1.020439363696133e-07</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>1.000030221509286e-07</v>
+        <v>9.982362767118754e-08</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>9.821619951981961e-08</v>
+        <v>9.778740178109511e-08</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>9.652218695218045e-08</v>
+        <v>9.591877225378692e-08</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>9.491476465434311e-08</v>
+        <v>9.420093899531099e-08</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>9.338771283263968e-08</v>
+        <v>9.261710191171579e-08</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>9.193481169340432e-08</v>
+        <v>9.115046090905175e-08</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>9.054984144296912e-08</v>
+        <v>8.978421589336724e-08</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>8.922658228766688e-08</v>
+        <v>8.850156677071134e-08</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>8.795881443382976e-08</v>
+        <v>8.728571344713254e-08</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>8.674107738150528e-08</v>
+        <v>8.612200949224102e-08</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>8.557167217215105e-08</v>
+        <v>8.500647772592918e-08</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>8.445006254327223e-08</v>
+        <v>8.393843884355455e-08</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>8.337571257276199e-08</v>
+        <v>8.291721450594969e-08</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>8.234808633851194e-08</v>
+        <v>8.194212637394566e-08</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>8.136664791841423e-08</v>
+        <v>8.101249610837404e-08</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>8.043086139036055e-08</v>
+        <v>8.012764537006604e-08</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>7.954019083224389e-08</v>
+        <v>7.928689581985401e-08</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>7.869410032195596e-08</v>
+        <v>7.848956911856914e-08</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>7.789205393738855e-08</v>
+        <v>7.773498692704265e-08</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>7.71335157564345e-08</v>
+        <v>7.702247090610681e-08</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>7.64179498569856e-08</v>
+        <v>7.635134271659285e-08</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>7.574482031693395e-08</v>
+        <v>7.572092401933233e-08</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>7.511359121417143e-08</v>
+        <v>7.513053647515656e-08</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>7.452372662659074e-08</v>
+        <v>7.457950174489769e-08</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>7.397469063208375e-08</v>
+        <v>7.406714148938699e-08</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>7.346594730854234e-08</v>
+        <v>7.359277736945583e-08</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>7.29969607338591e-08</v>
+        <v>7.315573104593621e-08</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>7.256719498592595e-08</v>
+        <v>7.27553241796595e-08</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>7.217611414263503e-08</v>
+        <v>7.239087843145727e-08</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>7.182318228187826e-08</v>
+        <v>7.206171546216093e-08</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>7.150786348154818e-08</v>
+        <v>7.176715693260239e-08</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>7.122962181953675e-08</v>
+        <v>7.150652450361307e-08</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>7.098792137373595e-08</v>
+        <v>7.127913983602444e-08</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>7.078222622203814e-08</v>
+        <v>7.108432459066825e-08</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>7.061200044233537e-08</v>
+        <v>7.092140042837599e-08</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>7.047670811251974e-08</v>
+        <v>7.078968900997922e-08</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>7.037581331048341e-08</v>
+        <v>7.068851199630951e-08</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>7.030878011411853e-08</v>
+        <v>7.061719104819851e-08</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>7.027507260131723e-08</v>
+        <v>7.057504782647775e-08</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>7.027415484997165e-08</v>
+        <v>7.05614039919788e-08</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>7.030549093797391e-08</v>
+        <v>7.057558120553323e-08</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>7.036854494321613e-08</v>
+        <v>7.061690112797262e-08</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>7.046278094359048e-08</v>
+        <v>7.068468542012856e-08</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>7.058766286275452e-08</v>
+        <v>7.077825563675064e-08</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>7.074210353842858e-08</v>
+        <v>7.089655429765466e-08</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>7.092322696403711e-08</v>
+        <v>7.103729356195688e-08</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>7.112779480406787e-08</v>
+        <v>7.119793638022876e-08</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>7.135256872300845e-08</v>
+        <v>7.137594570304146e-08</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>7.15943103853466e-08</v>
+        <v>7.156878448096645e-08</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>7.184978145557008e-08</v>
+        <v>7.177391566457505e-08</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>7.21157435981667e-08</v>
+        <v>7.198880220443875e-08</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>7.238895847762393e-08</v>
+        <v>7.221090705112871e-08</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>7.266618775842961e-08</v>
+        <v>7.243769315521634e-08</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>7.294419310507147e-08</v>
+        <v>7.266662346727305e-08</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>7.321973618203732e-08</v>
+        <v>7.289516093787025e-08</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>7.348957865381466e-08</v>
+        <v>7.312076851757911e-08</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>7.375048218489126e-08</v>
+        <v>7.33409091569711e-08</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>7.399920843975505e-08</v>
+        <v>7.355304580661766e-08</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>7.423251908289344e-08</v>
+        <v>7.375464141708995e-08</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>7.444717577879428e-08</v>
+        <v>7.394315893895943e-08</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>7.46399401919453e-08</v>
+        <v>7.411606132279746e-08</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>7.480757398683427e-08</v>
+        <v>7.427081151917546e-08</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>7.494683882794874e-08</v>
+        <v>7.440487247866463e-08</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>7.505449637977654e-08</v>
+        <v>7.451570715183644e-08</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>7.512730830680539e-08</v>
+        <v>7.460077848926224e-08</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>7.516203627352292e-08</v>
+        <v>7.46575494415133e-08</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>7.515544194441692e-08</v>
+        <v>7.468348295916107e-08</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>7.510428698397508e-08</v>
+        <v>7.467604199277687e-08</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>7.500533305668508e-08</v>
+        <v>7.463268949293203e-08</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>7.48553418270347e-08</v>
+        <v>7.455088841019795e-08</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>7.465159607829181e-08</v>
+        <v>7.442827113469121e-08</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>7.439416286310123e-08</v>
+        <v>7.426337534982218e-08</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>7.408403529956576e-08</v>
+        <v>7.405503984522897e-08</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>7.37222071294395e-08</v>
+        <v>7.380210361332722e-08</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>7.330967209447651e-08</v>
+        <v>7.35034056465325e-08</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>7.284742393643078e-08</v>
+        <v>7.315778493726024e-08</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>7.233645639705686e-08</v>
+        <v>7.276408047792648e-08</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>7.177776321810868e-08</v>
+        <v>7.232113126094661e-08</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>7.117233814134013e-08</v>
+        <v>7.182777627873606e-08</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>7.052117490850586e-08</v>
+        <v>7.128285452371091e-08</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>6.982526726135982e-08</v>
+        <v>7.068520498828658e-08</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>6.90856089416561e-08</v>
+        <v>7.003366666487867e-08</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>6.830319369114852e-08</v>
+        <v>6.932707854590252e-08</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>6.747901525159189e-08</v>
+        <v>6.856427962377433e-08</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>6.661406736474006e-08</v>
+        <v>6.774410889090949e-08</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>6.570934377234674e-08</v>
+        <v>6.686540533972319e-08</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>6.476583821616689e-08</v>
+        <v>6.592700796263184e-08</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>6.378429646175886e-08</v>
+        <v>6.492785552516338e-08</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>6.276283012301462e-08</v>
+        <v>6.386794664260537e-08</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>6.169796239996252e-08</v>
+        <v>6.274791902786106e-08</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>6.058619458867863e-08</v>
+        <v>6.156841920688115e-08</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>5.942402798523765e-08</v>
+        <v>6.0330093705615e-08</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>5.820796388571467e-08</v>
+        <v>5.903358905001235e-08</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>5.693450358618425e-08</v>
+        <v>5.767955176602236e-08</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>5.560014838272267e-08</v>
+        <v>5.626862837959602e-08</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>5.420139957140451e-08</v>
+        <v>5.480146541668252e-08</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>5.273475844830422e-08</v>
+        <v>5.327870940323093e-08</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>5.119672630949825e-08</v>
+        <v>5.170100686519241e-08</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>4.958380445106112e-08</v>
+        <v>5.006900432851606e-08</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>4.789249416906713e-08</v>
+        <v>4.838334831915087e-08</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>4.612151982098075e-08</v>
+        <v>4.664653836332762e-08</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>4.429683746654691e-08</v>
+        <v>4.488377257410572e-08</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>4.246265467258835e-08</v>
+        <v>4.313546234111096e-08</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>4.066351539298138e-08</v>
+        <v>4.144229944447374e-08</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>3.894396358160475e-08</v>
+        <v>3.984497566432668e-08</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>3.734854319233477e-08</v>
+        <v>3.838418278080012e-08</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>3.592179817904853e-08</v>
+        <v>3.710061257402515e-08</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>3.470827249562265e-08</v>
+        <v>3.603495682413244e-08</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>3.375251009593538e-08</v>
+        <v>3.52279073112541e-08</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>3.30990549338632e-08</v>
+        <v>3.472015581552068e-08</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>3.27924509632832e-08</v>
+        <v>3.45523941170633e-08</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>3.287724213807276e-08</v>
+        <v>3.476531399601322e-08</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>3.33979724121088e-08</v>
+        <v>3.539960723250141e-08</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>3.439528132853873e-08</v>
+        <v>3.649207188453175e-08</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>3.585426209759987e-08</v>
+        <v>3.802411173924069e-08</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>3.771867266394831e-08</v>
+        <v>3.993590847641709e-08</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>3.993128680331359e-08</v>
+        <v>4.216666230115584e-08</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>4.243487829142584e-08</v>
+        <v>4.46555734185524e-08</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>4.517222090401182e-08</v>
+        <v>4.734184203369888e-08</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>4.808608841680154e-08</v>
+        <v>5.016466835169062e-08</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>5.111925460552399e-08</v>
+        <v>5.306325257762195e-08</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>5.421449324590955e-08</v>
+        <v>5.597679491658851e-08</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>5.731457811368438e-08</v>
+        <v>5.884449557368193e-08</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>6.036228298457888e-08</v>
+        <v>6.160555475399789e-08</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>6.330038163432325e-08</v>
+        <v>6.419917266263178e-08</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>6.607164783864387e-08</v>
+        <v>6.656454950467558e-08</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>6.861885537327105e-08</v>
+        <v>6.864088548522484e-08</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>7.088847753960928e-08</v>
+        <v>7.038057036255443e-08</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>7.287875630192197e-08</v>
+        <v>7.192055959112757e-08</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>7.462602673529727e-08</v>
+        <v>7.353361822780965e-08</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>7.616801116304055e-08</v>
+        <v>7.549561167692993e-08</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>7.781280264343424e-08</v>
+        <v>7.805586827772288e-08</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>8.057149642645838e-08</v>
+        <v>8.138891483109813e-08</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>8.471110507691413e-08</v>
+        <v>8.534158809131298e-08</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>8.909451907531648e-08</v>
+        <v>8.924510020271015e-08</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>9.259806827199262e-08</v>
+        <v>9.24526737155432e-08</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>9.491791789265804e-08</v>
+        <v>9.471667701059867e-08</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>9.604240898869175e-08</v>
+        <v>9.593172746901056e-08</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>9.596024091046365e-08</v>
+        <v>9.599261691369959e-08</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>9.467463093070068e-08</v>
+        <v>9.48116005329698e-08</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>9.247507137744366e-08</v>
+        <v>9.264528897923763e-08</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>8.991312689077406e-08</v>
+        <v>9.006553529495139e-08</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>8.755002764153381e-08</v>
+        <v>8.76558190274511e-08</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>8.594700380056819e-08</v>
+        <v>8.599961972408016e-08</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>8.566528553871901e-08</v>
+        <v>8.568041693217843e-08</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>8.72661030268292e-08</v>
+        <v>8.728169019908694e-08</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>9.131068643574407e-08</v>
+        <v>9.138691907214915e-08</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>9.836026593630323e-08</v>
+        <v>9.857958309870265e-08</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>1.086199393663346e-07</v>
+        <v>1.090675153833205e-07</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>1.181595562258474e-07</v>
+        <v>1.186967116345913e-07</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>1.217097067471737e-07</v>
+        <v>1.218926944018884e-07</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>1.205378850853287e-07</v>
+        <v>1.199372267375976e-07</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>1.179077166218962e-07</v>
+        <v>1.162106766428745e-07</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>1.155469114195011e-07</v>
+        <v>1.126640649194277e-07</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>1.132257166634972e-07</v>
+        <v>1.094266745774631e-07</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>1.105873646472489e-07</v>
+        <v>1.065095805980558e-07</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>1.072751362807823e-07</v>
+        <v>1.039238667090291e-07</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>1.031889894882384e-07</v>
+        <v>1.017267960630093e-07</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>9.908471339791107e-08</v>
+        <v>1.001296066158193e-07</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>9.589625165475309e-08</v>
+        <v>9.937558856268265e-08</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>9.455754790371747e-08</v>
+        <v>9.970803209882364e-08</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>9.589409387355002e-08</v>
+        <v>1.013193067781809e-07</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>9.927291259372298e-08</v>
+        <v>1.037169979290466e-07</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>1.030168037184918e-07</v>
+        <v>1.059184042552843e-07</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>1.054258741887859e-07</v>
+        <v>1.069301697157284e-07</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>1.051633482470372e-07</v>
+        <v>1.059729767262407e-07</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>1.024514316303894e-07</v>
+        <v>1.031864448953769e-07</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>9.793062760933854e-08</v>
+        <v>9.895675811890012e-08</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>9.224144456954832e-08</v>
+        <v>9.367010330769293e-08</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>8.602439067646181e-08</v>
+        <v>8.771266776801124e-08</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>7.989605085495939e-08</v>
+        <v>8.151358925476421e-08</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>7.438326609380291e-08</v>
+        <v>7.566312676859272e-08</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>6.99918372758981e-08</v>
+        <v>7.078931353990598e-08</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>6.722756528415338e-08</v>
+        <v>6.752018279911599e-08</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>6.655960811375007e-08</v>
+        <v>6.644204423860343e-08</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>6.788184832272267e-08</v>
+        <v>6.74861683857454e-08</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>7.063109760084512e-08</v>
+        <v>7.006338060276778e-08</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>7.423155842767826e-08</v>
+        <v>7.357014873548579e-08</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>7.810743328277758e-08</v>
+        <v>7.740294062970943e-08</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>8.168292464570361e-08</v>
+        <v>8.095822413125364e-08</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>8.43822349960154e-08</v>
+        <v>8.363246708593187e-08</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>8.56295668132721e-08</v>
+        <v>8.482213733955765e-08</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>8.485158256366192e-08</v>
+        <v>8.392630297048911e-08</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>8.179537015463872e-08</v>
+        <v>8.068272522337117e-08</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>7.684296879701633e-08</v>
+        <v>7.550031575626058e-08</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>7.045116476836463e-08</v>
+        <v>6.886699468737347e-08</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>6.307674434624698e-08</v>
+        <v>6.127068213491905e-08</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>5.517649380822868e-08</v>
+        <v>5.319929821710857e-08</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>4.720719943187143e-08</v>
+        <v>4.51407630521497e-08</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>3.962564749474783e-08</v>
+        <v>3.758299675826109e-08</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>3.28886242744195e-08</v>
+        <v>3.101391945365025e-08</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>2.745195847391255e-08</v>
+        <v>2.592037637260691e-08</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>2.357346725129931e-08</v>
+        <v>2.256694344574518e-08</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>2.10716056596051e-08</v>
+        <v>2.072500965757379e-08</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>1.970575463358531e-08</v>
+        <v>2.009965289374007e-08</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>1.923529510799525e-08</v>
+        <v>2.039595103989164e-08</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>1.941960801759063e-08</v>
+        <v>2.131898198167548e-08</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>2.001807429712641e-08</v>
+        <v>2.257382360473885e-08</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>2.079007488135833e-08</v>
+        <v>2.386555379472965e-08</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>2.149499070504096e-08</v>
+        <v>2.489925043729394e-08</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>2.1906471772839e-08</v>
+        <v>2.539796552806474e-08</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>2.201518762484222e-08</v>
+        <v>2.535812087749269e-08</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>2.198068447782648e-08</v>
+        <v>2.498886470216625e-08</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>2.196695876408698e-08</v>
+        <v>2.45049509563792e-08</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>2.213800691591881e-08</v>
+        <v>2.412113359442478e-08</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>2.265782536561741e-08</v>
+        <v>2.405216657059644e-08</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>2.369041054547747e-08</v>
+        <v>2.451280383918767e-08</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>2.539975888779423e-08</v>
+        <v>2.571779935449173e-08</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>2.794986682486278e-08</v>
+        <v>2.788190707080196e-08</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>3.14436472006503e-08</v>
+        <v>3.114603561920988e-08</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>3.573210020491823e-08</v>
+        <v>3.534655075967765e-08</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>4.060129489446682e-08</v>
+        <v>4.024132154575758e-08</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>4.583730025962458e-08</v>
+        <v>4.558821695064333e-08</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>5.122618529072248e-08</v>
+        <v>5.114510594753106e-08</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>5.655401897808409e-08</v>
+        <v>5.666985750960927e-08</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>6.16068703120404e-08</v>
+        <v>6.192034061007411e-08</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>6.61708082829218e-08</v>
+        <v>6.665442422212114e-08</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>7.003392301575071e-08</v>
+        <v>7.063206258829508e-08</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>7.336337309314323e-08</v>
+        <v>7.40043070111119e-08</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>7.714900227779121e-08</v>
+        <v>7.777099942381415e-08</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>8.248847968649295e-08</v>
+        <v>8.304322862847954e-08</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>9.047947443605117e-08</v>
+        <v>9.093208342719015e-08</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>1.022196556432671e-07</v>
+        <v>1.025486526220267e-07</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>1.188066924249507e-07</v>
+        <v>1.190040250150783e-07</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>1.413382538978888e-07</v>
+        <v>1.414092894084113e-07</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>1.709120091788888e-07</v>
+        <v>1.708755346041126e-07</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>2.086017708418797e-07</v>
+        <v>2.084899021168611e-07</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>2.541449420961125e-07</v>
+        <v>2.539980407180855e-07</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>3.052603359113513e-07</v>
+        <v>3.051193307098082e-07</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>3.594991558062703e-07</v>
+        <v>3.594049053970751e-07</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>4.144126052995493e-07</v>
+        <v>4.14405898084938e-07</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>4.675518879097929e-07</v>
+        <v>4.676734420783735e-07</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>5.164682071556813e-07</v>
+        <v>5.167586706824337e-07</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>5.587127665558865e-07</v>
+        <v>5.592127172021628e-07</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>5.918367696290251e-07</v>
+        <v>5.925867149425492e-07</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>6.138737904881798e-07</v>
+        <v>6.149126111436095e-07</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>6.253819374423457e-07</v>
+        <v>6.267387403102016e-07</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>6.277424326955472e-07</v>
+        <v>6.294338945691561e-07</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>6.223369514388173e-07</v>
+        <v>6.243673175724768e-07</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>6.105471688631948e-07</v>
+        <v>6.129082529721726e-07</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>5.937547601597152e-07</v>
+        <v>5.964259444202494e-07</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>5.733414005194035e-07</v>
+        <v>5.76289635568703e-07</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>5.506887651333142e-07</v>
+        <v>5.538685700695581e-07</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>5.271785103674294e-07</v>
+        <v>5.305319730094457e-07</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>5.03939973403884e-07</v>
+        <v>5.074002308581597e-07</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>4.812176271549409e-07</v>
+        <v>4.847210719005475e-07</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>4.590620796011989e-07</v>
+        <v>4.625510337211972e-07</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>4.375239387232673e-07</v>
+        <v>4.409466539047073e-07</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>4.166538125017462e-07</v>
+        <v>4.199644700356674e-07</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>3.965023089172637e-07</v>
+        <v>3.996610196986946e-07</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>3.771200359504194e-07</v>
+        <v>3.80092840478378e-07</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>3.585576015818227e-07</v>
+        <v>3.613164699593162e-07</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>3.408656137920752e-07</v>
+        <v>3.433884457261e-07</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>3.240946805618019e-07</v>
+        <v>3.263653053633439e-07</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>3.08295409871604e-07</v>
+        <v>3.103035864556381e-07</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>2.935184097020845e-07</v>
+        <v>2.952598265875751e-07</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>2.798142880338659e-07</v>
+        <v>2.812905633437666e-07</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>2.672336528475506e-07</v>
+        <v>2.684523343088044e-07</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>2.55827112123743e-07</v>
+        <v>2.56801677067282e-07</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>2.456452738430628e-07</v>
+        <v>2.463951292038086e-07</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>2.367387459861137e-07</v>
+        <v>2.372892283029769e-07</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>2.291450861340873e-07</v>
+        <v>2.295267032998183e-07</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>2.228146721331432e-07</v>
+        <v>2.23058038105138e-07</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>2.176621617415255e-07</v>
+        <v>2.177959211446563e-07</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>2.136021048024281e-07</v>
+        <v>2.136529266589977e-07</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>2.105490511590483e-07</v>
+        <v>2.1054162888879e-07</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>2.084175506545825e-07</v>
+        <v>2.083746020746602e-07</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>2.071221531322297e-07</v>
+        <v>2.07064420457238e-07</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>2.065774084351859e-07</v>
+        <v>2.065236582771499e-07</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>2.066978664066486e-07</v>
+        <v>2.066648897750241e-07</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>2.073980768898146e-07</v>
+        <v>2.07400689191488e-07</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>2.085925897278812e-07</v>
+        <v>2.086436307671694e-07</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>2.101959547640462e-07</v>
+        <v>2.10306288742697e-07</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>2.121227218415054e-07</v>
+        <v>2.123012373586968e-07</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>2.142874408034565e-07</v>
+        <v>2.145410508557974e-07</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>2.166046614930979e-07</v>
+        <v>2.169383034746278e-07</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>2.189889337536233e-07</v>
+        <v>2.194055694558121e-07</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>2.213548074282344e-07</v>
+        <v>2.218554230399829e-07</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>2.23616832360126e-07</v>
+        <v>2.242004384677654e-07</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>2.256895583924935e-07</v>
+        <v>2.263531899797855e-07</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>2.274875353685375e-07</v>
+        <v>2.282262518166747e-07</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>2.289253131314522e-07</v>
+        <v>2.297321982190577e-07</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>2.299174415244373e-07</v>
+        <v>2.307836034275647e-07</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>2.303784703906882e-07</v>
+        <v>2.312930416828219e-07</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>2.302229495734025e-07</v>
+        <v>2.311730872254574e-07</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>2.293654289157772e-07</v>
+        <v>2.303363142960987e-07</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>2.277204582610089e-07</v>
+        <v>2.286952971353734e-07</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>2.252108530783048e-07</v>
+        <v>2.261710617257418e-07</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>2.218558004970501e-07</v>
+        <v>2.227831756956173e-07</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>2.177367979162476e-07</v>
+        <v>2.186149199737388e-07</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>2.129363873217181e-07</v>
+        <v>2.13750643596463e-07</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>2.075371106992688e-07</v>
+        <v>2.082746956001333e-07</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>2.0162151003472e-07</v>
+        <v>2.022714250211058e-07</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.952721273138939e-07</v>
+        <v>1.958251808957387e-07</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>1.88571504522595e-07</v>
+        <v>1.890203122603724e-07</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>1.816021836466452e-07</v>
+        <v>1.819411681513649e-07</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>1.744467066718669e-07</v>
+        <v>1.746720976050747e-07</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>1.671876155840635e-07</v>
+        <v>1.672974496578409e-07</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>1.59907452369064e-07</v>
+        <v>1.599015733460288e-07</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>1.526887590126714e-07</v>
+        <v>1.525688177059771e-07</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>1.456140775007085e-07</v>
+        <v>1.453835317740446e-07</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>1.387659498189975e-07</v>
+        <v>1.384300645865897e-07</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>1.32226917953342e-07</v>
+        <v>1.317927651799518e-07</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>1.260795238895647e-07</v>
+        <v>1.255559825904896e-07</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>1.204047252903842e-07</v>
+        <v>1.198024449843012e-07</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>1.152377038672353e-07</v>
+        <v>1.145680486168078e-07</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>1.105619857557502e-07</v>
+        <v>1.098358425770888e-07</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>1.063583314581778e-07</v>
+        <v>1.055860465232243e-07</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>1.026075014767553e-07</v>
+        <v>1.01798880113283e-07</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>9.92902563137347e-08</v>
+        <v>9.845456300534823e-08</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>9.638735647135506e-08</v>
+        <v>9.553331485749032e-08</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>9.387956245186462e-08</v>
+        <v>9.301535532778888e-08</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>9.174763475751012e-08</v>
+        <v>9.088090407432209e-08</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>8.997233389053286e-08</v>
+        <v>8.911018075516248e-08</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>8.853442035317991e-08</v>
+        <v>8.768340502838855e-08</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>8.741465464769721e-08</v>
+        <v>8.658079655207759e-08</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>8.65937972763278e-08</v>
+        <v>8.578257498430395e-08</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>8.605260874131789e-08</v>
+        <v>8.526895998314526e-08</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>8.577184954491266e-08</v>
+        <v>8.502017120667795e-08</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>8.573228018935668e-08</v>
+        <v>8.501642831297801e-08</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>8.59146611768953e-08</v>
+        <v>8.523795096012218e-08</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>8.629975300977321e-08</v>
+        <v>8.56649588061864e-08</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>8.686831619023612e-08</v>
+        <v>8.627767150924781e-08</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>8.760111122052811e-08</v>
+        <v>8.705630872738179e-08</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>8.847889860289553e-08</v>
+        <v>8.798109011866615e-08</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>8.948243883958289e-08</v>
+        <v>8.90322353411766e-08</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>9.059249243283416e-08</v>
+        <v>9.018996405298853e-08</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>9.17898198848964e-08</v>
+        <v>9.143449591218041e-08</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>9.305518169801372e-08</v>
+        <v>9.274605057682764e-08</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>9.436933837442992e-08</v>
+        <v>9.41048477050053e-08</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>9.571305041639248e-08</v>
+        <v>9.549110695479238e-08</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>9.706707832614527e-08</v>
+        <v>9.688504798426401e-08</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>9.841218260593212e-08</v>
+        <v>9.826689045149536e-08</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>9.972912375800054e-08</v>
+        <v>9.961685401456532e-08</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>1.009986622845943e-07</v>
+        <v>1.00915158331549e-07</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>1.022015586879574e-07</v>
+        <v>1.021420230605218e-07</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>1.033185734703372e-07</v>
+        <v>1.032776678595624e-07</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>1.043304671339766e-07</v>
+        <v>1.04302312386745e-07</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>1.052180001811225e-07</v>
+        <v>1.05196176300148e-07</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>1.059655821602041e-07</v>
+        <v>1.059431879305713e-07</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>1.066133721976584e-07</v>
+        <v>1.065839361521145e-07</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>1.07245040925079e-07</v>
+        <v>1.072032323354416e-07</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>1.079454131779041e-07</v>
+        <v>1.078870609151081e-07</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>1.087993137915716e-07</v>
+        <v>1.08721406325669e-07</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>1.098915676015217e-07</v>
+        <v>1.097922530016817e-07</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>1.113069994431924e-07</v>
+        <v>1.111855853777015e-07</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>1.131304341520208e-07</v>
+        <v>1.129873878882826e-07</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>1.154466965634488e-07</v>
+        <v>1.152836449679841e-07</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>1.183406115129108e-07</v>
+        <v>1.181603410513577e-07</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>1.218970038358508e-07</v>
+        <v>1.217034605729644e-07</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>1.26200698367705e-07</v>
+        <v>1.259989879673579e-07</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>1.313365199439074e-07</v>
+        <v>1.311329076690891e-07</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>1.373892933999059e-07</v>
+        <v>1.371912041127233e-07</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>1.444438435711349e-07</v>
+        <v>1.44259861732812e-07</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>1.525849952930255e-07</v>
+        <v>1.524248649639033e-07</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>1.618975734010308e-07</v>
+        <v>1.61772198240568e-07</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>1.72466402730583e-07</v>
+        <v>1.723878459973551e-07</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>1.843763081171094e-07</v>
+        <v>1.843577926688092e-07</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>1.977121143960701e-07</v>
+        <v>1.977680226895077e-07</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>2.125586464028939e-07</v>
+        <v>2.127045204939964e-07</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>2.290007289730039e-07</v>
+        <v>2.292532705168157e-07</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>2.470801764503861e-07</v>
+        <v>2.474569142304662e-07</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>2.663762643815703e-07</v>
+        <v>2.66891978890427e-07</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>2.861867306055378e-07</v>
+        <v>2.868512777613988e-07</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>3.058053236933098e-07</v>
+        <v>3.066236040031275e-07</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>3.245257922158383e-07</v>
+        <v>3.254977507752882e-07</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>3.416418847441424e-07</v>
+        <v>3.42762511237625e-07</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>3.564473498491906e-07</v>
+        <v>3.577066785498297e-07</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>3.682359361019589e-07</v>
+        <v>3.696190458716027e-07</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>3.763013920734548e-07</v>
+        <v>3.777884063626753e-07</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>3.799374663346513e-07</v>
+        <v>3.815035531827447e-07</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>3.784379074565379e-07</v>
+        <v>3.800532794915243e-07</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>3.710964640100979e-07</v>
+        <v>3.727263784487213e-07</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>3.572068845663155e-07</v>
+        <v>3.588116432140441e-07</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>3.363101958164097e-07</v>
+        <v>3.378463163550476e-07</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>3.096471620561464e-07</v>
+        <v>3.110754292276491e-07</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>2.791730896452731e-07</v>
+        <v>2.804619398385729e-07</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>2.468457576590903e-07</v>
+        <v>2.479712906226603e-07</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>2.146229451729806e-07</v>
+        <v>2.155689240148358e-07</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>1.844624312623263e-07</v>
+        <v>1.852202824500234e-07</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>1.583219950024282e-07</v>
+        <v>1.588908083630653e-07</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>1.381594154686714e-07</v>
+        <v>1.385459441888881e-07</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>1.259324717364193e-07</v>
+        <v>1.26151132362397e-07</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>1.231489185404723e-07</v>
+        <v>1.232204535828436e-07</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>1.292613729684669e-07</v>
+        <v>1.292067433860067e-07</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>1.431361250834645e-07</v>
+        <v>1.429747678198201e-07</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>1.636394207040262e-07</v>
+        <v>1.633892485562302e-07</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>1.896375056486528e-07</v>
+        <v>1.893149072671229e-07</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>2.199966257359274e-07</v>
+        <v>2.196164656244667e-07</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>2.53583026784364e-07</v>
+        <v>2.531586453001609e-07</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>2.892629546124657e-07</v>
+        <v>2.888061679660935e-07</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>3.259026550388327e-07</v>
+        <v>3.254237552942504e-07</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>3.623683738819692e-07</v>
+        <v>3.618761289565206e-07</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>3.975263569603799e-07</v>
+        <v>3.970280106247944e-07</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>4.302428500926643e-07</v>
+        <v>4.297441219710564e-07</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>4.593840990973252e-07</v>
+        <v>4.588891846671945e-07</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>4.838163497928789e-07</v>
+        <v>4.833279203851106e-07</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>5.024058479979053e-07</v>
+        <v>5.019250507967695e-07</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>5.140188395309158e-07</v>
+        <v>5.135452975740679e-07</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>5.175215702104463e-07</v>
+        <v>5.170533823889271e-07</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>5.120158759607686e-07</v>
+        <v>5.115498708306322e-07</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>4.981830059729192e-07</v>
+        <v>4.977164433269164e-07</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>4.773534248168645e-07</v>
+        <v>4.768846951128496e-07</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>4.508595928820254e-07</v>
+        <v>4.503882193931407e-07</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>4.200339705579069e-07</v>
+        <v>4.19560609372583e-07</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>3.862090182339119e-07</v>
+        <v>3.857354582558674e-07</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>3.507171962995263e-07</v>
+        <v>3.50246359247768e-07</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>3.148909651442415e-07</v>
+        <v>3.144269055530644e-07</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>2.800627851574521e-07</v>
+        <v>2.796106903764389e-07</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>2.475651167286496e-07</v>
+        <v>2.471313069226717e-07</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>2.187295657231636e-07</v>
+        <v>2.183214925175666e-07</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>1.944144228029066e-07</v>
+        <v>1.940399188614822e-07</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>1.74219492817356e-07</v>
+        <v>1.738847765642055e-07</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>1.575377318240726e-07</v>
+        <v>1.572470794932492e-07</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>1.437620958805741e-07</v>
+        <v>1.435178415160832e-07</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>1.322855410444338e-07</v>
+        <v>1.320880765002328e-07</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>1.225010233731787e-07</v>
+        <v>1.223487983131771e-07</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>1.138034415573625e-07</v>
+        <v>1.136929705121038e-07</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>1.057806885085057e-07</v>
+        <v>1.057072519333873e-07</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>9.837475058361283e-08</v>
+        <v>9.83336811156413e-08</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>9.156554599209352e-08</v>
+        <v>9.155236623865784e-08</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>8.533299294335537e-08</v>
+        <v>8.53434154822269e-08</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>7.965700964678941e-08</v>
+        <v>7.96869370261219e-08</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>7.451751431180371e-08</v>
+        <v>7.456303905013326e-08</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>6.989442514780447e-08</v>
+        <v>6.995182973404952e-08</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>6.576766036418556e-08</v>
+        <v>6.583341725764696e-08</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>6.211713817035358e-08</v>
+        <v>6.218790980071454e-08</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>5.892277677571351e-08</v>
+        <v>5.899541554303955e-08</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>5.616449438966179e-08</v>
+        <v>5.623604266440083e-08</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>5.382220922160369e-08</v>
+        <v>5.388989934458604e-08</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>5.187583948094306e-08</v>
+        <v>5.193709376338139e-08</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>5.030530337707862e-08</v>
+        <v>5.035773410056793e-08</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>4.909051911941546e-08</v>
+        <v>4.913192853593316e-08</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>4.821140491735362e-08</v>
+        <v>4.823978524925944e-08</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>4.76478789802966e-08</v>
+        <v>4.766141242033267e-08</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>4.737985951764673e-08</v>
+        <v>4.737691822893754e-08</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>4.738726473880576e-08</v>
+        <v>4.736641085485815e-08</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>4.765001285317628e-08</v>
+        <v>4.760999847787947e-08</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>4.814802207015997e-08</v>
+        <v>4.808778927778556e-08</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>4.886121059915998e-08</v>
+        <v>4.877989143436188e-08</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>4.976949664957817e-08</v>
+        <v>4.966641312739272e-08</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>5.085279843081571e-08</v>
+        <v>5.07274625366616e-08</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>5.209103415227683e-08</v>
+        <v>5.194314784195509e-08</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>5.346412202336151e-08</v>
+        <v>5.329357722305554e-08</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>5.495198025347451e-08</v>
+        <v>5.47588588597501e-08</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>5.653452705201682e-08</v>
+        <v>5.631910093182211e-08</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>5.819168062838919e-08</v>
+        <v>5.795441161905471e-08</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>5.990335919199685e-08</v>
+        <v>5.964489910123544e-08</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>6.164948095224052e-08</v>
+        <v>6.137067155814742e-08</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>6.340996411852087e-08</v>
+        <v>6.311183716957371e-08</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>6.516472690024328e-08</v>
+        <v>6.484850411530202e-08</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>6.689368750680845e-08</v>
+        <v>6.656078057511541e-08</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>6.857676414761705e-08</v>
+        <v>6.822877472879695e-08</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>7.019387503207438e-08</v>
+        <v>6.983259475613429e-08</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>7.172493836957979e-08</v>
+        <v>7.135234883690915e-08</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>7.314987236953826e-08</v>
+        <v>7.276814515090885e-08</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>7.444859524135061e-08</v>
+        <v>7.406009187791662e-08</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>7.560103113278308e-08</v>
+        <v>7.520830306324497e-08</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>7.659331629332564e-08</v>
+        <v>7.619902866038061e-08</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>7.742956015399041e-08</v>
+        <v>7.703627135712184e-08</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>7.811710376107755e-08</v>
+        <v>7.772722581968965e-08</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>7.866328816088908e-08</v>
+        <v>7.827908671430681e-08</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>7.907545439972504e-08</v>
+        <v>7.869904870719418e-08</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>7.936094352388592e-08</v>
+        <v>7.899430646457304e-08</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>7.952709657967302e-08</v>
+        <v>7.91720546526655e-08</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>7.958125461338676e-08</v>
+        <v>7.923948793769278e-08</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>7.953075867132795e-08</v>
+        <v>7.920380098587647e-08</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>7.938294979979722e-08</v>
+        <v>7.907218846343805e-08</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>7.914516904509534e-08</v>
+        <v>7.885184503659903e-08</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>7.882475745352336e-08</v>
+        <v>7.854996537158129e-08</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>7.842905607138141e-08</v>
+        <v>7.817374413460577e-08</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>7.796540594497097e-08</v>
+        <v>7.773037599189468e-08</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>7.744114812059191e-08</v>
+        <v>7.722705560966879e-08</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>7.686362364454536e-08</v>
+        <v>7.667097765414999e-08</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>7.624017356313265e-08</v>
+        <v>7.606933679156038e-08</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>7.557813892265336e-08</v>
+        <v>7.542932768812037e-08</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>7.488486076940883e-08</v>
+        <v>7.475814501005208e-08</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>7.416768014970035e-08</v>
+        <v>7.406298342357762e-08</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>7.343393810982748e-08</v>
+        <v>7.335103759491733e-08</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>7.269097569609149e-08</v>
+        <v>7.262950219029331e-08</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>7.194613395479386e-08</v>
+        <v>7.19055718759278e-08</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>7.120675393223394e-08</v>
+        <v>7.1186441318041e-08</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>7.048017667471382e-08</v>
+        <v>7.047930518285573e-08</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>6.97737432285329e-08</v>
+        <v>6.979135813659225e-08</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>6.909479463999256e-08</v>
+        <v>6.912979484547272e-08</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>6.845067195539416e-08</v>
+        <v>6.850180997571928e-08</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>6.784871622103718e-08</v>
+        <v>6.791459819355225e-08</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>6.729626848322306e-08</v>
+        <v>6.737535416519382e-08</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>6.680066978825289e-08</v>
+        <v>6.689127255686592e-08</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>6.636926118242653e-08</v>
+        <v>6.646954803478919e-08</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>6.600938371204518e-08</v>
+        <v>6.611737526518565e-08</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>6.572837842340981e-08</v>
+        <v>6.584194891427705e-08</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>6.553358636282062e-08</v>
+        <v>6.56504636482844e-08</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>6.543234857657871e-08</v>
+        <v>6.55501141334296e-08</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>6.543200611098464e-08</v>
+        <v>6.554809503593397e-08</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>6.553989987918736e-08</v>
+        <v>6.565160089134813e-08</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>6.575954923221169e-08</v>
+        <v>6.586407587408234e-08</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>6.608065796716461e-08</v>
+        <v>6.617540600749211e-08</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>6.64898089047563e-08</v>
+        <v>6.657241448663966e-08</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>6.697358486569556e-08</v>
+        <v>6.70419245065859e-08</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>6.751856867069284e-08</v>
+        <v>6.757075926239338e-08</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>6.811134314045733e-08</v>
+        <v>6.814574194912324e-08</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>6.873849109569797e-08</v>
+        <v>6.875369576183664e-08</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>6.938659535712545e-08</v>
+        <v>6.938144389559627e-08</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>7.004223874544879e-08</v>
+        <v>7.001580954546326e-08</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>7.069200408137699e-08</v>
+        <v>7.064361590649867e-08</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>7.132247418562077e-08</v>
+        <v>7.125168617376526e-08</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>7.192023187888906e-08</v>
+        <v>7.182684354232407e-08</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>7.247185998189103e-08</v>
+        <v>7.235591120723635e-08</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>7.296394131533715e-08</v>
+        <v>7.282571236356463e-08</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>7.338305869993616e-08</v>
+        <v>7.322307020636977e-08</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>7.371579495639838e-08</v>
+        <v>7.353480793071408e-08</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>7.394873290543292e-08</v>
+        <v>7.374774873165881e-08</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>7.406930647748745e-08</v>
+        <v>7.384956679799502e-08</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>7.407989221297741e-08</v>
+        <v>7.384287689176187e-08</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>7.399561464313315e-08</v>
+        <v>7.374304002822638e-08</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>7.38320070105452e-08</v>
+        <v>7.356582587830733e-08</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>7.36046025578036e-08</v>
+        <v>7.332700411292296e-08</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>7.332893452749872e-08</v>
+        <v>7.304234440299182e-08</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>7.302053616222126e-08</v>
+        <v>7.272761641943279e-08</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>7.269494070456096e-08</v>
+        <v>7.239858983316391e-08</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>7.23676813971087e-08</v>
+        <v>7.207103431510417e-08</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>7.205429148245419e-08</v>
+        <v>7.17607195361715e-08</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>7.177030420318812e-08</v>
+        <v>7.148341516728483e-08</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>7.153125280190094e-08</v>
+        <v>7.12548908793628e-08</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>7.135267052118256e-08</v>
+        <v>7.109091634332353e-08</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>7.125009060362357e-08</v>
+        <v>7.10072612300858e-08</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>7.123897116026593e-08</v>
+        <v>7.101961558556424e-08</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>7.132187313052723e-08</v>
+        <v>7.113000093209314e-08</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>7.147394472347543e-08</v>
+        <v>7.131138656551054e-08</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>7.166682740721511e-08</v>
+        <v>7.153302531009444e-08</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>7.18721626498513e-08</v>
+        <v>7.176416999012331e-08</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>7.206159191948841e-08</v>
+        <v>7.197407342987491e-08</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>7.220675668423152e-08</v>
+        <v>7.213198845362778e-08</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>7.227929841218516e-08</v>
+        <v>7.220716788565985e-08</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>7.225085857145405e-08</v>
+        <v>7.21688645502492e-08</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>7.209457737334934e-08</v>
+        <v>7.198799822374465e-08</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>7.183078048473275e-08</v>
+        <v>7.168796991643758e-08</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>7.153535470307733e-08</v>
+        <v>7.135397757709752e-08</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>7.128737473664345e-08</v>
+        <v>7.107476485496186e-08</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>7.116591529369243e-08</v>
+        <v>7.093907539926894e-08</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>7.125005108248507e-08</v>
+        <v>7.103565285925657e-08</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>7.161885681128247e-08</v>
+        <v>7.145324088416295e-08</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>7.234170545599487e-08</v>
+        <v>7.226982165781009e-08</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>7.332401825617477e-08</v>
+        <v>7.338151696250494e-08</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>7.43346508046581e-08</v>
+        <v>7.453296568749828e-08</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>7.513829159725348e-08</v>
+        <v>7.546418444749002e-08</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>7.549962912977038e-08</v>
+        <v>7.591518985718092e-08</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>7.525479549614654e-08</v>
+        <v>7.570368051358849e-08</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>7.455959113805241e-08</v>
+        <v>7.4994936484797e-08</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>7.365918853827875e-08</v>
+        <v>7.405141375807445e-08</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>7.279876434559133e-08</v>
+        <v>7.313557285043262e-08</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>7.218180320017921e-08</v>
+        <v>7.246555738403929e-08</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>7.182592449313586e-08</v>
+        <v>7.206194384576408e-08</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>7.169697264552986e-08</v>
+        <v>7.189027405323247e-08</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>7.176078988597419e-08</v>
+        <v>7.191608749357962e-08</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>7.198321844308219e-08</v>
+        <v>7.210492365394092e-08</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>7.2330100545467e-08</v>
+        <v>7.242232202145169e-08</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>7.276727842174131e-08</v>
+        <v>7.28338220832468e-08</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>7.326059430051913e-08</v>
+        <v>7.330496332646233e-08</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>7.377589041041276e-08</v>
+        <v>7.380128523823276e-08</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>7.427900898003631e-08</v>
+        <v>7.428832730569427e-08</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>7.473579223800248e-08</v>
+        <v>7.473162901598178e-08</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>7.511208241292438e-08</v>
+        <v>7.509672985623049e-08</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>7.537372173341501e-08</v>
+        <v>7.534916931357557e-08</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>7.548784019308797e-08</v>
+        <v>7.545578699203142e-08</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>7.545266485766643e-08</v>
+        <v>7.541481784206833e-08</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>7.529836411722853e-08</v>
+        <v>7.525674451068701e-08</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>7.505656301528264e-08</v>
+        <v>7.501352027012748e-08</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>7.475888659533748e-08</v>
+        <v>7.471709839263002e-08</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>7.443695990090088e-08</v>
+        <v>7.439943215043403e-08</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>7.412240797548156e-08</v>
+        <v>7.409247481577979e-08</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>7.384685586258811e-08</v>
+        <v>7.382817966090751e-08</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>7.364192860572842e-08</v>
+        <v>7.363849995805665e-08</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>7.353925124841124e-08</v>
+        <v>7.355538897946749e-08</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>7.357044883414485e-08</v>
+        <v>7.361079999737994e-08</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>7.376714640643771e-08</v>
+        <v>7.383668628403405e-08</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>7.416096900879781e-08</v>
+        <v>7.426500111166934e-08</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>7.477734535969017e-08</v>
+        <v>7.492101124883215e-08</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>7.560660214696525e-08</v>
+        <v>7.57921045833267e-08</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>7.662671967988156e-08</v>
+        <v>7.685234592750842e-08</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>7.781566462252951e-08</v>
+        <v>7.807578536912316e-08</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>7.91514036389968e-08</v>
+        <v>7.943647299591393e-08</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>8.061190339337068e-08</v>
+        <v>8.090845889562326e-08</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>8.21751305497423e-08</v>
+        <v>8.246579315599772e-08</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>8.381905177219902e-08</v>
+        <v>8.408252586477991e-08</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>8.552163528158667e-08</v>
+        <v>8.573270872671077e-08</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>8.754187556530469e-08</v>
+        <v>8.768229418817e-08</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>9.120376230785294e-08</v>
+        <v>9.130344050216227e-08</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>9.807015455681339e-08</v>
+        <v>9.821633211944649e-08</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>1.088397166963287e-07</v>
+        <v>1.091379371498474e-07</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>1.228347395635072e-07</v>
+        <v>1.233467016531184e-07</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>1.392546994075555e-07</v>
+        <v>1.399927115551309e-07</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>1.572990724776428e-07</v>
+        <v>1.582260527817184e-07</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>1.761673350229326e-07</v>
+        <v>1.771968112587092e-07</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>1.950555941399773e-07</v>
+        <v>1.960524277842463e-07</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>2.129451408935486e-07</v>
+        <v>2.137716907085609e-07</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>2.28476806303792e-07</v>
+        <v>2.290660925964509e-07</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>2.402612406257378e-07</v>
+        <v>2.406234310404525e-07</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>2.469090941143689e-07</v>
+        <v>2.471315036330555e-07</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>2.472570736431687e-07</v>
+        <v>2.474953018972115e-07</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>2.423365963809338e-07</v>
+        <v>2.427284826912432e-07</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>2.344132351800923e-07</v>
+        <v>2.350304727284214e-07</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>2.25766316411283e-07</v>
+        <v>2.266139130251312e-07</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>2.186751664451199e-07</v>
+        <v>2.196914445977337e-07</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>2.15207525105238e-07</v>
+        <v>2.162696773840838e-07</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>2.15050994969271e-07</v>
+        <v>2.160375775455891e-07</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>2.163945575098416e-07</v>
+        <v>2.172248383033612e-07</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>2.174038260435146e-07</v>
+        <v>2.180383982825127e-07</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>2.162444138868588e-07</v>
+        <v>2.1668519610816e-07</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>2.111088860200927e-07</v>
+        <v>2.113986600906192e-07</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>2.014258902546763e-07</v>
+        <v>2.016271136764053e-07</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>1.883481309450524e-07</v>
+        <v>1.885133848028815e-07</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>1.73156258554724e-07</v>
+        <v>1.73326054392296e-07</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>1.571309235472017e-07</v>
+        <v>1.573337033669047e-07</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>1.415527763859518e-07</v>
+        <v>1.418049126489191e-07</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>1.277024675344963e-07</v>
+        <v>1.280082631606063e-07</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>1.168405774256774e-07</v>
+        <v>1.17192436009083e-07</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>1.095269782745427e-07</v>
+        <v>1.099113468459178e-07</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>1.054547989139952e-07</v>
+        <v>1.058595188602433e-07</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.042634196730638e-07</v>
+        <v>1.04678182582663e-07</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>1.055922208807889e-07</v>
+        <v>1.060085685437926e-07</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>1.090805828662024e-07</v>
+        <v>1.094919072742385e-07</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>1.143678859583464e-07</v>
+        <v>1.14769429304618e-07</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>1.210935104862543e-07</v>
+        <v>1.214823651655392e-07</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>1.288968367789545e-07</v>
+        <v>1.292719453876055e-07</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>1.374172451654967e-07</v>
+        <v>1.377794005014416e-07</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>1.462941159749023e-07</v>
+        <v>1.466459610376435e-07</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>1.551668295362229e-07</v>
+        <v>1.555128575268379e-07</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>1.636747661784864e-07</v>
+        <v>1.640213204996276e-07</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>1.714614245611254e-07</v>
+        <v>1.718166182667934e-07</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>1.782820171867202e-07</v>
+        <v>1.786535479765701e-07</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>1.840138150619629e-07</v>
+        <v>1.84406577944883e-07</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>1.88540281544063e-07</v>
+        <v>1.889562477222879e-07</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>1.917448799902486e-07</v>
+        <v>1.921830968593594e-07</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>1.935110737577347e-07</v>
+        <v>1.93967664906659e-07</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>1.937223262037416e-07</v>
+        <v>1.941904914147533e-07</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>1.922621006854895e-07</v>
+        <v>1.927321159342091e-07</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>1.890140528487062e-07</v>
+        <v>1.894732719931144e-07</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>1.840147191702767e-07</v>
+        <v>1.844489168175219e-07</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>1.77728208404332e-07</v>
+        <v>1.781253355981794e-07</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>1.706928055674195e-07</v>
+        <v>1.710436413339021e-07</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>1.634467956760893e-07</v>
+        <v>1.63744947023508e-07</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>1.565284637468712e-07</v>
+        <v>1.56770365665795e-07</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>1.504760947963205e-07</v>
+        <v>1.506610102595859e-07</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>1.458279738409692e-07</v>
+        <v>1.459579938036808e-07</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>1.431223858973669e-07</v>
+        <v>1.432024292968971e-07</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>1.428976159820559e-07</v>
+        <v>1.429354297380452e-07</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>1.456919491115792e-07</v>
+        <v>1.456981081259356e-07</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>1.520436703024816e-07</v>
+        <v>1.520315774593812e-07</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>1.624910645712952e-07</v>
+        <v>1.62476950737182e-07</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>1.775724169345821e-07</v>
+        <v>1.775753409581679e-07</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>1.9772280412348e-07</v>
+        <v>1.977641836787019e-07</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>2.220858489476551e-07</v>
+        <v>2.221835899322981e-07</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>2.489262838433704e-07</v>
+        <v>2.490907851803605e-07</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>2.764919962183908e-07</v>
+        <v>2.767260732828366e-07</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>3.030308734805776e-07</v>
+        <v>3.033297580997707e-07</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>3.267908030377156e-07</v>
+        <v>3.271421434911306e-07</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>3.460333416735851e-07</v>
+        <v>3.464182166817602e-07</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>3.591450056921851e-07</v>
+        <v>3.595471938642966e-07</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>3.645792806526068e-07</v>
+        <v>3.649902282392158e-07</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>3.812625676952499e-07</v>
+        <v>3.817086753783884e-07</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>4.555986330616248e-07</v>
+        <v>4.561700484150179e-07</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>5.535541543361372e-07</v>
+        <v>5.542852205848064e-07</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>6.320993700936866e-07</v>
+        <v>6.329556071110508e-07</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>6.524908099906186e-07</v>
+        <v>6.533759578703917e-07</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>6.211688505805981e-07</v>
+        <v>6.219991193011671e-07</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>5.716609927831206e-07</v>
+        <v>5.724095739087679e-07</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>5.37576457104234e-07</v>
+        <v>5.382736241094716e-07</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>5.310987190314839e-07</v>
+        <v>5.317940695688881e-07</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>5.293142894474815e-07</v>
+        <v>5.300149281735465e-07</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>5.205820736678278e-07</v>
+        <v>5.212730425900661e-07</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>5.056675042852283e-07</v>
+        <v>5.063341232343935e-07</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>4.857245701586412e-07</v>
+        <v>4.863531364632051e-07</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>4.619072601470627e-07</v>
+        <v>4.62485048633215e-07</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>4.353695631095036e-07</v>
+        <v>4.358848261011519e-07</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>4.072654679049007e-07</v>
+        <v>4.077074352236704e-07</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>3.787110005235893e-07</v>
+        <v>3.790700653725481e-07</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>3.502776958738228e-07</v>
+        <v>3.505480809170944e-07</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>3.221296638303767e-07</v>
+        <v>3.223114161341253e-07</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>2.944211893262261e-07</v>
+        <v>2.945202284661063e-07</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>2.673065572943445e-07</v>
+        <v>2.673346753555015e-07</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>2.409400526676322e-07</v>
+        <v>2.409149142447012e-07</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>2.15475960379086e-07</v>
+        <v>2.154211025761927e-07</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>1.91068565361609e-07</v>
+        <v>1.910133977923693e-07</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>1.67872617167964e-07</v>
+        <v>1.67852394849902e-07</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>1.461746068754251e-07</v>
+        <v>1.462227445247738e-07</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>1.265732539556288e-07</v>
+        <v>1.267031108087599e-07</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>1.097125136117778e-07</v>
+        <v>1.099147544053625e-07</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>9.623634104706518e-08</v>
+        <v>9.64789360180741e-08</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>8.674389223553274e-08</v>
+        <v>8.697351836008532e-08</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>8.10813328494643e-08</v>
+        <v>8.124692601737853e-08</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>7.846975710628348e-08</v>
+        <v>7.854206322548713e-08</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>7.811132209881815e-08</v>
+        <v>7.808348941435013e-08</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>7.920818491990268e-08</v>
+        <v>7.909576401391332e-08</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>8.096250266237173e-08</v>
+        <v>8.080344645412257e-08</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>8.257643241905686e-08</v>
+        <v>8.243109616492083e-08</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>8.332493354337139e-08</v>
+        <v>8.327212201233898e-08</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>8.322465925278442e-08</v>
+        <v>8.332135619572463e-08</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>8.272536369458274e-08</v>
+        <v>8.298321647603945e-08</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>8.228222839432203e-08</v>
+        <v>8.26672533110907e-08</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>8.235043487755638e-08</v>
+        <v>8.278301715868456e-08</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>8.338277939738621e-08</v>
+        <v>8.373796319239798e-08</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>8.546571697965695e-08</v>
+        <v>8.561774309761925e-08</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>8.792802527620873e-08</v>
+        <v>8.784244540785363e-08</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>9.003884372775134e-08</v>
+        <v>8.977918662240035e-08</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>9.154225168724805e-08</v>
+        <v>9.120417455707791e-08</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>9.252980369047772e-08</v>
+        <v>9.219291611023726e-08</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>9.310100501264048e-08</v>
+        <v>9.282776658014967e-08</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>9.335536092893636e-08</v>
+        <v>9.319108126508621e-08</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>9.339237671456596e-08</v>
+        <v>9.336521546331869e-08</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>9.331155764472912e-08</v>
+        <v>9.343252447311791e-08</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>9.321187370615924e-08</v>
+        <v>9.347492399359002e-08</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>9.315609933993452e-08</v>
+        <v>9.354460457068292e-08</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>9.31484260752917e-08</v>
+        <v>9.364564624405424e-08</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>9.318770464231625e-08</v>
+        <v>9.377774298679253e-08</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>9.327278577109389e-08</v>
+        <v>9.394058877198627e-08</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>9.340252019170992e-08</v>
+        <v>9.41338775727237e-08</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>9.357575863425024e-08</v>
+        <v>9.43573033620936e-08</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>9.379135182880027e-08</v>
+        <v>9.461056011318432e-08</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>9.404815050544539e-08</v>
+        <v>9.489334179908403e-08</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>9.434500539427161e-08</v>
+        <v>9.520534239288172e-08</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>9.468076722536393e-08</v>
+        <v>9.554625586766528e-08</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>9.505428672880858e-08</v>
+        <v>9.591577619652376e-08</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>9.546441463469083e-08</v>
+        <v>9.631359735254539e-08</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>9.591000167309582e-08</v>
+        <v>9.673941330881815e-08</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>9.638989857410994e-08</v>
+        <v>9.719291803843138e-08</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>9.690295606781837e-08</v>
+        <v>9.767380551447311e-08</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>9.74480248843062e-08</v>
+        <v>9.818176971003128e-08</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>9.802395575365994e-08</v>
+        <v>9.871650459819536e-08</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>9.862959940596473e-08</v>
+        <v>9.927770415205333e-08</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>9.92638065713055e-08</v>
+        <v>9.986506234469311e-08</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>9.992542797976902e-08</v>
+        <v>1.004782731492042e-07</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>1.006133143614397e-07</v>
+        <v>1.01117030538674e-07</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>1.013263164464042e-07</v>
+        <v>1.017810284861921e-07</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>1.020632849647477e-07</v>
+        <v>1.024699609648465e-07</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>1.028230706465556e-07</v>
+        <v>1.031835219477254e-07</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>1.036045242219128e-07</v>
+        <v>1.039214054079169e-07</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>1.044064964209064e-07</v>
+        <v>1.046833053185106e-07</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>1.052286354281399e-07</v>
+        <v>1.054695938280438e-07</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>1.060750305205858e-07</v>
+        <v>1.062844199020921e-07</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>1.069513079059966e-07</v>
+        <v>1.071332395509566e-07</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>1.078630952772882e-07</v>
+        <v>1.080215100479584e-07</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>1.088160203273785e-07</v>
+        <v>1.089546886664211e-07</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>1.098157107491834e-07</v>
+        <v>1.099382326796661e-07</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>1.108677942356184e-07</v>
+        <v>1.109775993610143e-07</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>1.11977898479602e-07</v>
+        <v>1.120782459837897e-07</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>1.131516511740498e-07</v>
+        <v>1.132456298213133e-07</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>1.143946800118771e-07</v>
+        <v>1.144852081469061e-07</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>1.157126126860028e-07</v>
+        <v>1.158024382338923e-07</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>1.171110768893409e-07</v>
+        <v>1.172027773555915e-07</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>1.185957003148106e-07</v>
+        <v>1.186916827853283e-07</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>1.201721106553272e-07</v>
+        <v>1.202746117964234e-07</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>1.218459356038055e-07</v>
+        <v>1.219570216621974e-07</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>1.236228028531653e-07</v>
+        <v>1.237443696559753e-07</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>1.255083400963215e-07</v>
+        <v>1.256421130510776e-07</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>1.275081750261889e-07</v>
+        <v>1.276557091208246e-07</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>1.296279353356876e-07</v>
+        <v>1.297906151385417e-07</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>1.318732487177323e-07</v>
+        <v>1.320522883775494e-07</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>1.342497428652375e-07</v>
+        <v>1.344461861111674e-07</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>1.367630454711238e-07</v>
+        <v>1.369777656127221e-07</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>1.394187842283034e-07</v>
+        <v>1.396524841555308e-07</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>1.422225868296976e-07</v>
+        <v>1.424757990129205e-07</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>1.451800809682205e-07</v>
+        <v>1.454531674582108e-07</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>1.482968943367858e-07</v>
+        <v>1.485900467647209e-07</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>1.515786546283157e-07</v>
+        <v>1.518918942057783e-07</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>1.55030989535724e-07</v>
+        <v>1.553641670547025e-07</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>1.586595267519238e-07</v>
+        <v>1.59012322584812e-07</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>1.624698939698382e-07</v>
+        <v>1.628418180694354e-07</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>1.664677188823806e-07</v>
+        <v>1.668581107818916e-07</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>1.706586291824637e-07</v>
+        <v>1.710666579954987e-07</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>1.750482525630115e-07</v>
+        <v>1.754729169835863e-07</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>1.796422167169327e-07</v>
+        <v>1.800823450194684e-07</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>1.84446149337152e-07</v>
+        <v>1.849003993764754e-07</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>1.89477731611757e-07</v>
+        <v>1.899446025924885e-07</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>1.948115981638242e-07</v>
+        <v>1.952894862513909e-07</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>2.005391889363896e-07</v>
+        <v>2.010264036662358e-07</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>2.067519463083061e-07</v>
+        <v>2.07246710588271e-07</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>2.135413126584044e-07</v>
+        <v>2.140417627687229e-07</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>2.209987303655394e-07</v>
+        <v>2.215029159588414e-07</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>2.292156418085475e-07</v>
+        <v>2.297215259098581e-07</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>2.382834893662625e-07</v>
+        <v>2.387889483730024e-07</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>2.482937154175432e-07</v>
+        <v>2.487965390995281e-07</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>2.593377623412243e-07</v>
+        <v>2.598356538406653e-07</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>2.715070725161366e-07</v>
+        <v>2.7199764834764e-07</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>2.848834882981599e-07</v>
+        <v>2.85364279516443e-07</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>2.993773723613642e-07</v>
+        <v>2.99845845419486e-07</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>3.147512189962068e-07</v>
+        <v>3.152047937317978e-07</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>3.307626772409866e-07</v>
+        <v>3.311987274656094e-07</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>3.471693961339465e-07</v>
+        <v>3.47585249633096e-07</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>3.637290247133872e-07</v>
+        <v>3.641219632464901e-07</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>3.801992120175653e-07</v>
+        <v>3.805664713179805e-07</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>3.963376070847375e-07</v>
+        <v>3.966763768597563e-07</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>4.119018589532041e-07</v>
+        <v>4.122092828840497e-07</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>4.266496166612216e-07</v>
+        <v>4.269227924030492e-07</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>4.403385292470493e-07</v>
+        <v>4.405745084289465e-07</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>4.527262457489832e-07</v>
+        <v>4.529220339739694e-07</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>4.635704152052813e-07</v>
+        <v>4.637229720503083e-07</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>4.726286866542079e-07</v>
+        <v>4.727349256701594e-07</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>4.7965870913405e-07</v>
+        <v>4.79715497845742e-07</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>4.84549759529801e-07</v>
+        <v>4.845543258998284e-07</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>4.877983966140175e-07</v>
+        <v>4.87750204315641e-07</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>4.900761970078541e-07</v>
+        <v>4.899774858762026e-07</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>4.920547536689823e-07</v>
+        <v>4.919105397514991e-07</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>4.944056595550776e-07</v>
+        <v>4.942237351115213e-07</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>4.978005076238115e-07</v>
+        <v>4.975914411262554e-07</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>5.029108908328514e-07</v>
+        <v>5.026880269656837e-07</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>5.104084021398792e-07</v>
+        <v>5.101878617998026e-07</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>5.209641009778143e-07</v>
+        <v>5.207647784866577e-07</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>5.350837742115781e-07</v>
+        <v>5.349264739151721e-07</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>5.528747913929457e-07</v>
+        <v>5.52780146287544e-07</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>5.743856931408008e-07</v>
+        <v>5.743738575446025e-07</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>5.996650200740133e-07</v>
+        <v>5.997556696271628e-07</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>6.287613128115235e-07</v>
+        <v>6.28973644476111e-07</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>6.617231119722052e-07</v>
+        <v>6.620758440322658e-07</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>6.985989581749182e-07</v>
+        <v>6.991103302364329e-07</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>7.394373920386234e-07</v>
+        <v>7.401251650295184e-07</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>7.842396674230401e-07</v>
+        <v>7.851205522711519e-07</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>8.324300196916743e-07</v>
+        <v>8.335127057456501e-07</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>8.830470222070857e-07</v>
+        <v>8.843275176402662e-07</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>9.351221912662007e-07</v>
+        <v>9.365837378126443e-07</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>9.876870431660871e-07</v>
+        <v>9.893001161205698e-07</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>1.039773094203672e-06</v>
+        <v>1.041495402421688e-06</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>1.090411860675884e-06</v>
+        <v>1.092188346573646e-06</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>1.13863485887979e-06</v>
+        <v>1.140397698434226e-06</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>1.183473605112316e-06</v>
+        <v>1.185142207861075e-06</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>1.223969537526061e-06</v>
+        <v>1.225452686538515e-06</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>1.259305343711004e-06</v>
+        <v>1.260531660625327e-06</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>1.288768871456703e-06</v>
+        <v>1.28970949769861e-06</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>1.311650475023662e-06</v>
+        <v>1.312319612408396e-06</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>1.3272405086723e-06</v>
+        <v>1.327695419404635e-06</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>1.334829326663066e-06</v>
+        <v>1.335170333337302e-06</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>1.333707436315446e-06</v>
+        <v>1.334077905954166e-06</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>1.323413683840424e-06</v>
+        <v>1.32397413070394e-06</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>1.304240260083709e-06</v>
+        <v>1.305089785644939e-06</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>1.276621670140708e-06</v>
+        <v>1.277783122319715e-06</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>1.240992419155276e-06</v>
+        <v>1.242412392325272e-06</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>1.19791828564755e-06</v>
+        <v>1.199483399465834e-06</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>1.148478887393184e-06</v>
+        <v>1.150079506518063e-06</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>1.093879548466042e-06</v>
+        <v>1.095425371030537e-06</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>1.0353255929398e-06</v>
+        <v>1.036745650551648e-06</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>9.740223448882801e-07</v>
+        <v>9.752650026299349e-07</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>9.111751283852612e-07</v>
+        <v>9.122080848138888e-07</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>8.479892675045746e-07</v>
+        <v>8.487995546520573e-07</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>7.856700863198823e-07</v>
+        <v>7.862640696928166e-07</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>7.25422908905071e-07</v>
+        <v>7.258262874847689e-07</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>6.683115493485599e-07</v>
+        <v>6.685665356421131e-07</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>6.145849921730171e-07</v>
+        <v>6.14734074647003e-07</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>5.642011692104502e-07</v>
+        <v>5.642813123205372e-07</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>5.171176490477232e-07</v>
+        <v>5.171602860000824e-07</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>4.732920002718375e-07</v>
+        <v>4.733230330231438e-07</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>4.326817914697828e-07</v>
+        <v>4.327215907272144e-07</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>3.952445912284404e-07</v>
+        <v>3.953079964496788e-07</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>3.609379681348028e-07</v>
+        <v>3.610342875280329e-07</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>3.29719264829281e-07</v>
+        <v>3.298522938922557e-07</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>3.015239163988516e-07</v>
+        <v>3.016937354480624e-07</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>2.762474576056008e-07</v>
+        <v>2.764537056242029e-07</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>2.537811879913364e-07</v>
+        <v>2.540234101317524e-07</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>2.340164070979355e-07</v>
+        <v>2.34294054681855e-07</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>2.168444144672656e-07</v>
+        <v>2.171568449856451e-07</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>2.021565096411489e-07</v>
+        <v>2.025029867542123e-07</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>1.898439921614552e-07</v>
+        <v>1.902236856986934e-07</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>1.797981615700456e-07</v>
+        <v>1.802101475302167e-07</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>1.719041094798005e-07</v>
+        <v>1.723472990089556e-07</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>1.658997334182755e-07</v>
+        <v>1.663711888319639e-07</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>1.61373243336219e-07</v>
+        <v>1.618664656148393e-07</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>1.579061425130089e-07</v>
+        <v>1.584109945739593e-07</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>1.550799342280381e-07</v>
+        <v>1.555826409257166e-07</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>1.524761217606876e-07</v>
+        <v>1.529592698864915e-07</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>1.496762083903462e-07</v>
+        <v>1.501187466726724e-07</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>1.462616973964028e-07</v>
+        <v>1.466389365006481e-07</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>1.418140920582377e-07</v>
+        <v>1.420977045867982e-07</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>1.361739768378984e-07</v>
+        <v>1.363392404459926e-07</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>1.303009622866878e-07</v>
+        <v>1.303580442221677e-07</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>1.254567145105871e-07</v>
+        <v>1.254591161614923e-07</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>1.228797007064276e-07</v>
+        <v>1.229230774816717e-07</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>1.223106627148075e-07</v>
+        <v>1.224566422833354e-07</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>1.214866425548084e-07</v>
+        <v>1.216629964990021e-07</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>1.203670486251957e-07</v>
+        <v>1.204941042465016e-07</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>1.198706235313796e-07</v>
+        <v>1.19915328342236e-07</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>1.20918429553744e-07</v>
+        <v>1.208944820057966e-07</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>1.243857427825699e-07</v>
+        <v>1.243519589591148e-07</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>1.300900085855706e-07</v>
+        <v>1.301125867422605e-07</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>1.367881968915325e-07</v>
+        <v>1.369028876534559e-07</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>1.431909624948097e-07</v>
+        <v>1.434014166801715e-07</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>1.480089601897779e-07</v>
+        <v>1.482867288098999e-07</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>1.499535372617572e-07</v>
+        <v>1.502380878730838e-07</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>1.484557690175542e-07</v>
+        <v>1.48671480885044e-07</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>1.450275016311206e-07</v>
+        <v>1.451327996230114e-07</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>1.415544092684855e-07</v>
+        <v>1.415505911738585e-07</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>1.398376647848679e-07</v>
+        <v>1.397671687508363e-07</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>1.400930249428099e-07</v>
+        <v>1.400069230798032e-07</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>1.411274489041197e-07</v>
+        <v>1.410565621679041e-07</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>1.416988727622274e-07</v>
+        <v>1.41652765815117e-07</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>1.408110397833195e-07</v>
+        <v>1.407825333858448e-07</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>1.385082399895206e-07</v>
+        <v>1.384925127803285e-07</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>1.351100551932622e-07</v>
+        <v>1.351096973430314e-07</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>1.309360689593447e-07</v>
+        <v>1.309610822029545e-07</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>1.263058648525711e-07</v>
+        <v>1.263736624891013e-07</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>1.215390136107175e-07</v>
+        <v>1.216744188621116e-07</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>1.169090941805705e-07</v>
+        <v>1.171384551110116e-07</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>1.125403560920163e-07</v>
+        <v>1.128724375097439e-07</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>1.085267943610412e-07</v>
+        <v>1.089489064697998e-07</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>1.049624040036436e-07</v>
+        <v>1.054404024026821e-07</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>1.019411800358201e-07</v>
+        <v>1.024194657198925e-07</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>9.955711747355949e-08</v>
+        <v>9.995863683292426e-08</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>9.790420717473669e-08</v>
+        <v>9.813045331548496e-08</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>9.688255797490897e-08</v>
+        <v>9.687511512010916e-08</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>9.594306008894695e-08</v>
+        <v>9.581903122636053e-08</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>9.503682706094362e-08</v>
+        <v>9.491193978213176e-08</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>9.421723529614667e-08</v>
+        <v>9.417058988567686e-08</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>9.353766119980169e-08</v>
+        <v>9.361173063524809e-08</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>9.305148117715697e-08</v>
+        <v>9.32521111290999e-08</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>9.279979619700244e-08</v>
+        <v>9.310178094385929e-08</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>9.27655068622181e-08</v>
+        <v>9.313902584788159e-08</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>9.29142826826454e-08</v>
+        <v>9.333272745669527e-08</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>9.321179052298528e-08</v>
+        <v>9.365176594219998e-08</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>9.362369724793843e-08</v>
+        <v>9.406502147629499e-08</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>9.411566972220504e-08</v>
+        <v>9.454137423087926e-08</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>9.465337481048675e-08</v>
+        <v>9.504970437785301e-08</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>9.520247937748382e-08</v>
+        <v>9.555889208911521e-08</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>9.572865028789653e-08</v>
+        <v>9.603781753656485e-08</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>9.619755440642656e-08</v>
+        <v>9.645536089210218e-08</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>9.657485859777383e-08</v>
+        <v>9.678040232762588e-08</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>9.682630111610134e-08</v>
+        <v>9.698188840671153e-08</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>9.693133852287317e-08</v>
+        <v>9.70415236180892e-08</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>9.689936683765499e-08</v>
+        <v>9.6968855926892e-08</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>9.674373155425258e-08</v>
+        <v>9.677710628032331e-08</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>9.647777816647179e-08</v>
+        <v>9.647949562558685e-08</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>9.61148521681189e-08</v>
+        <v>9.608924490988669e-08</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>9.56682990529991e-08</v>
+        <v>9.561957508042567e-08</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>9.515146431491858e-08</v>
+        <v>9.508370708440784e-08</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>9.457769344768379e-08</v>
+        <v>9.449486186903734e-08</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>9.396033194509955e-08</v>
+        <v>9.386626038151679e-08</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>9.331272530097285e-08</v>
+        <v>9.321112356905089e-08</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>9.264821900910841e-08</v>
+        <v>9.254267237884218e-08</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>9.198015856331264e-08</v>
+        <v>9.187412775809481e-08</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>9.132188945739207e-08</v>
+        <v>9.121871065401305e-08</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>9.068675718515135e-08</v>
+        <v>9.05896420137993e-08</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>9.008810724039697e-08</v>
+        <v>9.000014278465786e-08</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>8.953928511693533e-08</v>
+        <v>8.946343391379282e-08</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>8.90536363085713e-08</v>
+        <v>8.899273634840689e-08</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>8.864450630911123e-08</v>
+        <v>8.860127103570414e-08</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>8.832466374118862e-08</v>
+        <v>8.830154974059813e-08</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>8.810421645598053e-08</v>
+        <v>8.810281318225649e-08</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>8.799250567257864e-08</v>
+        <v>8.801335961309863e-08</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>8.799887253889003e-08</v>
+        <v>8.804148719803243e-08</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>8.813265820282207e-08</v>
+        <v>8.819549410196622e-08</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>8.840320381228199e-08</v>
+        <v>8.848367848980806e-08</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>8.881985051517658e-08</v>
+        <v>8.891433852646567e-08</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>8.939193945941382e-08</v>
+        <v>8.949577237684791e-08</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>9.012881179289989e-08</v>
+        <v>9.023627820586186e-08</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>9.103980866354335e-08</v>
+        <v>9.114415417841694e-08</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>9.213427121925087e-08</v>
+        <v>9.222769845942074e-08</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>9.34215406079284e-08</v>
+        <v>9.349520921378013e-08</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>9.49109579774855e-08</v>
+        <v>9.495498460640547e-08</v>
       </c>
     </row>
   </sheetData>
